--- a/public_data/kompetence_otazky.xlsx
+++ b/public_data/kompetence_otazky.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\revize-rs\public_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57391717-AED6-4EAB-A864-9936FFE8A724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,12 +327,6 @@
     <t>Pomáhám</t>
   </si>
   <si>
-    <t>Připraven - běžné</t>
-  </si>
-  <si>
-    <t>Připraven - krize</t>
-  </si>
-  <si>
     <t>Propojenost světa</t>
   </si>
   <si>
@@ -379,12 +379,18 @@
   </si>
   <si>
     <t>Moje svědomí</t>
+  </si>
+  <si>
+    <t>Připraven — běžné</t>
+  </si>
+  <si>
+    <t>Připraven — krize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,7 +438,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,12 +446,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -487,7 +496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,9 +529,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,6 +581,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,11 +773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
         <v>88</v>
@@ -939,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
@@ -948,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>52</v>
@@ -962,7 +1005,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>49</v>
@@ -971,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
         <v>53</v>
@@ -985,7 +1028,7 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
         <v>73</v>
@@ -1008,7 +1051,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>49</v>
@@ -1031,7 +1074,7 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
         <v>76</v>
@@ -1054,7 +1097,7 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>68</v>
@@ -1077,7 +1120,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>49</v>
@@ -1100,7 +1143,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>68</v>
@@ -1109,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>89</v>
@@ -1123,7 +1166,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>80</v>
@@ -1146,7 +1189,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
         <v>76</v>
@@ -1169,7 +1212,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>68</v>
@@ -1178,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>87</v>
@@ -1192,7 +1235,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>68</v>
@@ -1201,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>86</v>
@@ -1215,7 +1258,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>49</v>
@@ -1238,7 +1281,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
@@ -1261,7 +1304,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>49</v>
@@ -1284,7 +1327,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>80</v>
@@ -1307,7 +1350,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>69</v>
@@ -1329,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1341,7 +1384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
